--- a/CH-044 Combine Tables.xlsx
+++ b/CH-044 Combine Tables.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208964C2-5596-4682-99C3-B6F96AE5837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9648D486-4C50-4EC7-90ED-FE2A02E4B75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="MyWork" sheetId="2" r:id="rId2"/>
+    <sheet name="SingleFunction" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="18">
   <si>
     <t>Product A</t>
   </si>
@@ -110,6 +111,9 @@
   </si>
   <si>
     <t>First Pass - Non Integrated Solution</t>
+  </si>
+  <si>
+    <t>One Formula</t>
   </si>
 </sst>
 </file>
@@ -240,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -392,19 +396,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -444,13 +439,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
@@ -461,6 +450,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
@@ -1217,6 +1212,375 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>77084</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>576056</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Down 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07AEF59-68FF-4D08-BE32-F7AFCD2BE7DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="17374484" y="312981"/>
+          <a:ext cx="498972" cy="562611"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="2800" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>455295</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A524E1B-8575-442D-90EC-9FB9998F7802}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12875895" y="853440"/>
+          <a:ext cx="4440555" cy="3268980"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5904"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="2800" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Challenge 44: Combine Tables</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:br>
+            <a:rPr lang="en-AU" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>The question tables display product sales across various regions for the different months of spring.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-AU" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1800" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Calculate the total sales per product in each region for the entire spring season as the result table.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Right Brace 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869B1869-EB1D-48C4-9666-297C0B377FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11597640" y="57150"/>
+          <a:ext cx="283845" cy="3295650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 185849"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="2800" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>51435</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>460238</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>105584</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Arrow: Down 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A80911A2-6003-4E96-B8F7-65F5587367EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="12418378" y="1753864"/>
+          <a:ext cx="516117" cy="408803"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-AU" sz="2800" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Berlin">
   <a:themeElements>
@@ -1499,26 +1863,26 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="I2" s="3"/>
       <c r="J2" s="8" t="s">
         <v>14</v>
@@ -1541,7 +1905,7 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>14</v>
@@ -1577,7 +1941,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="5"/>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -1613,7 +1977,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="5"/>
       <c r="C5" s="11" t="s">
         <v>6</v>
@@ -1649,7 +2013,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="5"/>
       <c r="C6" s="11" t="s">
         <v>7</v>
@@ -1685,7 +2049,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="5"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -1701,14 +2065,14 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="C8" s="21" t="s">
+      <c r="A8" s="31"/>
+      <c r="C8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="4"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -1718,7 +2082,7 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="31"/>
       <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
@@ -1738,7 +2102,7 @@
       <c r="N9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="31"/>
       <c r="C10" s="11" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +2122,7 @@
       <c r="N10"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="31"/>
       <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
@@ -1778,7 +2142,7 @@
       <c r="N11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="31"/>
       <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +2163,7 @@
       <c r="N12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="31"/>
       <c r="F13" s="1"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1807,20 +2171,20 @@
       <c r="N13"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="C14" s="21" t="s">
+      <c r="A14" s="31"/>
+      <c r="C14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="31"/>
       <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
@@ -1839,7 +2203,7 @@
       <c r="N15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="31"/>
       <c r="C16" s="11" t="s">
         <v>7</v>
       </c>
@@ -1858,7 +2222,7 @@
       <c r="N16"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="31"/>
       <c r="C17" s="11" t="s">
         <v>6</v>
       </c>
@@ -1877,7 +2241,7 @@
       <c r="N17"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="31"/>
       <c r="C18" s="11" t="s">
         <v>8</v>
       </c>
@@ -1964,7 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EBE46D-E1B2-4BE6-9A23-858EDFDA7BB0}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1988,26 +2352,26 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="I2" s="3"/>
       <c r="J2" s="8" t="s">
         <v>14</v>
@@ -2030,7 +2394,7 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
         <v>14</v>
@@ -2066,7 +2430,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="5"/>
       <c r="C4" s="11" t="s">
         <v>5</v>
@@ -2102,7 +2466,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="5"/>
       <c r="C5" s="11" t="s">
         <v>6</v>
@@ -2138,7 +2502,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="5"/>
       <c r="C6" s="11" t="s">
         <v>7</v>
@@ -2174,7 +2538,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="5"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -2190,14 +2554,14 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="C8" s="21" t="s">
+      <c r="A8" s="31"/>
+      <c r="C8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="4"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -2207,7 +2571,7 @@
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
+      <c r="A9" s="31"/>
       <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
@@ -2227,7 +2591,7 @@
       <c r="N9"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
+      <c r="A10" s="31"/>
       <c r="C10" s="11" t="s">
         <v>5</v>
       </c>
@@ -2247,7 +2611,7 @@
       <c r="N10"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="31"/>
       <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2631,7 @@
       <c r="N11"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
+      <c r="A12" s="31"/>
       <c r="C12" s="11" t="s">
         <v>7</v>
       </c>
@@ -2288,7 +2652,7 @@
       <c r="N12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="31"/>
       <c r="F13" s="1"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2296,20 +2660,20 @@
       <c r="N13"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="C14" s="21" t="s">
+      <c r="A14" s="31"/>
+      <c r="C14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="2"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="31"/>
       <c r="C15" s="8" t="s">
         <v>14</v>
       </c>
@@ -2328,7 +2692,7 @@
       <c r="N15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="31"/>
       <c r="C16" s="11" t="s">
         <v>7</v>
       </c>
@@ -2347,7 +2711,7 @@
       <c r="N16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="31"/>
       <c r="C17" s="11" t="s">
         <v>6</v>
       </c>
@@ -2366,7 +2730,7 @@
       <c r="N17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
+      <c r="A18" s="31"/>
       <c r="C18" s="11" t="s">
         <v>8</v>
       </c>
@@ -2407,205 +2771,205 @@
       <c r="I22" s="4"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="23" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="21" t="s">
         <v>16</v>
       </c>
       <c r="I23" s="4"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N24"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="K25" s="31" t="s">
+      <c r="K25" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="27" t="str" cm="1">
+      <c r="L25" s="25" t="str" cm="1">
         <f t="array" ref="L25:P25">_xlfn._xlws.SORT(TRANSPOSE(_xlfn.UNIQUE(G26:G46)),1,1,TRUE)</f>
         <v>Product A</v>
       </c>
-      <c r="M25" s="27" t="str">
+      <c r="M25" s="25" t="str">
         <v>Product B</v>
       </c>
-      <c r="N25" s="28" t="str">
+      <c r="N25" s="26" t="str">
         <v>Product C</v>
       </c>
-      <c r="O25" s="27" t="str">
+      <c r="O25" s="25" t="str">
         <v>Product D</v>
       </c>
-      <c r="P25" s="27" t="str">
+      <c r="P25" s="25" t="str">
         <v>Product E</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F26" s="24" t="str" cm="1">
+      <c r="F26" s="22" t="str" cm="1">
         <f t="array" ref="F26:H37">_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C10:C12&amp;"|"&amp;D9:G9),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D10:G12))</f>
         <v>Region 1</v>
       </c>
-      <c r="G26" s="24" t="str">
+      <c r="G26" s="22" t="str">
         <v>Product A</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="22">
         <v>90</v>
       </c>
-      <c r="K26" s="29" t="str" cm="1">
+      <c r="K26" s="27" t="str" cm="1">
         <f t="array" ref="K26:K29">_xlfn._xlws.SORT(_xlfn.UNIQUE(F26:F46))</f>
         <v>Region 1</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="28">
         <f>SUMIFS($H$26:$H$55,$G$26:$G$55,L$25,$F$26:$F$55,$K26)</f>
         <v>188</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="28">
         <f t="shared" ref="M26:P29" si="0">SUMIFS($H$26:$H$55,$G$26:$G$55,M$25,$F$26:$F$55,$K26)</f>
         <v>45</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="28">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="O26" s="30">
+      <c r="O26" s="28">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="P26" s="30">
+      <c r="P26" s="28">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F27" s="24" t="str">
+      <c r="F27" s="22" t="str">
         <v>Region 1</v>
       </c>
-      <c r="G27" s="24" t="str">
+      <c r="G27" s="22" t="str">
         <v>Product D</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="22">
         <v>30</v>
       </c>
-      <c r="K27" s="29" t="str">
+      <c r="K27" s="27" t="str">
         <v>Region 2</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="28">
         <f t="shared" ref="L27:L29" si="1">SUMIFS($H$26:$H$55,$G$26:$G$55,L$25,$F$26:$F$55,$K27)</f>
         <v>37</v>
       </c>
-      <c r="M27" s="30">
+      <c r="M27" s="28">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
-      <c r="N27" s="30">
+      <c r="N27" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="28">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="P27" s="30">
+      <c r="P27" s="28">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F28" s="24" t="str">
+      <c r="F28" s="22" t="str">
         <v>Region 1</v>
       </c>
-      <c r="G28" s="24" t="str">
+      <c r="G28" s="22" t="str">
         <v>Product C</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="22">
         <v>95</v>
       </c>
-      <c r="K28" s="29" t="str">
+      <c r="K28" s="27" t="str">
         <v>Region 3</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="28">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28" s="28">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="28">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="28">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="P28" s="30">
+      <c r="P28" s="28">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F29" s="24" t="str">
+      <c r="F29" s="22" t="str">
         <v>Region 1</v>
       </c>
-      <c r="G29" s="24" t="str">
+      <c r="G29" s="22" t="str">
         <v>Product E</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="22">
         <v>74</v>
       </c>
-      <c r="K29" s="29" t="str">
+      <c r="K29" s="27" t="str">
         <v>Region 4</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="28">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="28">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O29" s="28">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="P29" s="30">
+      <c r="P29" s="28">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F30" s="24" t="str">
+      <c r="F30" s="22" t="str">
         <v>Region 4</v>
       </c>
-      <c r="G30" s="24" t="str">
+      <c r="G30" s="22" t="str">
         <v>Product A</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="22">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F31" s="24" t="str">
+      <c r="F31" s="22" t="str">
         <v>Region 4</v>
       </c>
-      <c r="G31" s="24" t="str">
+      <c r="G31" s="22" t="str">
         <v>Product D</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="22">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F32" s="24" t="str">
+      <c r="F32" s="22" t="str">
         <v>Region 4</v>
       </c>
-      <c r="G32" s="24" t="str">
+      <c r="G32" s="22" t="str">
         <v>Product C</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="22">
         <v>80</v>
       </c>
       <c r="K32" t="b" cm="1">
@@ -2629,13 +2993,13 @@
       </c>
     </row>
     <row r="33" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F33" s="24" t="str">
+      <c r="F33" s="22" t="str">
         <v>Region 4</v>
       </c>
-      <c r="G33" s="24" t="str">
+      <c r="G33" s="22" t="str">
         <v>Product E</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="22">
         <v>17</v>
       </c>
       <c r="K33" t="b">
@@ -2658,13 +3022,13 @@
       </c>
     </row>
     <row r="34" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F34" s="24" t="str">
+      <c r="F34" s="22" t="str">
         <v>Region 3</v>
       </c>
-      <c r="G34" s="24" t="str">
+      <c r="G34" s="22" t="str">
         <v>Product A</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="22">
         <v>88</v>
       </c>
       <c r="K34" t="b">
@@ -2687,13 +3051,13 @@
       </c>
     </row>
     <row r="35" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F35" s="24" t="str">
+      <c r="F35" s="22" t="str">
         <v>Region 3</v>
       </c>
-      <c r="G35" s="24" t="str">
+      <c r="G35" s="22" t="str">
         <v>Product D</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="22">
         <v>37</v>
       </c>
       <c r="K35" t="b">
@@ -2716,13 +3080,13 @@
       </c>
     </row>
     <row r="36" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F36" s="24" t="str">
+      <c r="F36" s="22" t="str">
         <v>Region 3</v>
       </c>
-      <c r="G36" s="24" t="str">
+      <c r="G36" s="22" t="str">
         <v>Product C</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="22">
         <v>69</v>
       </c>
       <c r="K36" t="b">
@@ -2745,214 +3109,1982 @@
       </c>
     </row>
     <row r="37" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F37" s="24" t="str">
+      <c r="F37" s="22" t="str">
         <v>Region 3</v>
       </c>
-      <c r="G37" s="24" t="str">
+      <c r="G37" s="22" t="str">
         <v>Product E</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="22">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F38" s="25" t="str" cm="1">
+      <c r="F38" s="23" t="str" cm="1">
         <f t="array" ref="F38:H46">_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C4:C6&amp;"|"&amp;D3:F3),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D4:F6))</f>
         <v>Region 1</v>
       </c>
-      <c r="G38" s="25" t="str">
+      <c r="G38" s="23" t="str">
         <v>Product A</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="23">
         <v>98</v>
       </c>
     </row>
     <row r="39" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F39" s="25" t="str">
+      <c r="F39" s="23" t="str">
         <v>Region 1</v>
       </c>
-      <c r="G39" s="25" t="str">
+      <c r="G39" s="23" t="str">
         <v>Product B</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="23">
         <v>45</v>
       </c>
     </row>
     <row r="40" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F40" s="25" t="str">
+      <c r="F40" s="23" t="str">
         <v>Region 1</v>
       </c>
-      <c r="G40" s="25" t="str">
+      <c r="G40" s="23" t="str">
         <v>Product E</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="23">
         <v>91</v>
       </c>
     </row>
     <row r="41" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F41" s="25" t="str">
+      <c r="F41" s="23" t="str">
         <v>Region 2</v>
       </c>
-      <c r="G41" s="25" t="str">
+      <c r="G41" s="23" t="str">
         <v>Product A</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="23">
         <v>37</v>
       </c>
     </row>
     <row r="42" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F42" s="25" t="str">
+      <c r="F42" s="23" t="str">
         <v>Region 2</v>
       </c>
-      <c r="G42" s="25" t="str">
+      <c r="G42" s="23" t="str">
         <v>Product B</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="23">
         <v>71</v>
       </c>
     </row>
     <row r="43" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F43" s="25" t="str">
+      <c r="F43" s="23" t="str">
         <v>Region 2</v>
       </c>
-      <c r="G43" s="25" t="str">
+      <c r="G43" s="23" t="str">
         <v>Product E</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="23">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F44" s="25" t="str">
+      <c r="F44" s="23" t="str">
         <v>Region 3</v>
       </c>
-      <c r="G44" s="25" t="str">
+      <c r="G44" s="23" t="str">
         <v>Product A</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="23">
         <v>92</v>
       </c>
     </row>
     <row r="45" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F45" s="25" t="str">
+      <c r="F45" s="23" t="str">
         <v>Region 3</v>
       </c>
-      <c r="G45" s="25" t="str">
+      <c r="G45" s="23" t="str">
         <v>Product B</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="23">
         <v>39</v>
       </c>
     </row>
     <row r="46" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F46" s="25" t="str">
+      <c r="F46" s="23" t="str">
         <v>Region 3</v>
       </c>
-      <c r="G46" s="25" t="str">
+      <c r="G46" s="23" t="str">
         <v>Product E</v>
       </c>
-      <c r="H46" s="25">
+      <c r="H46" s="23">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F47" s="26" t="str" cm="1">
+      <c r="F47" s="24" t="str" cm="1">
         <f t="array" ref="F47:H55">_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C16:C18&amp;"|"&amp;D15:F15),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D16:F18))</f>
         <v>Region 3</v>
       </c>
-      <c r="G47" s="26" t="str">
+      <c r="G47" s="24" t="str">
         <v>Product D</v>
       </c>
-      <c r="H47" s="26">
+      <c r="H47" s="24">
         <v>77</v>
       </c>
     </row>
     <row r="48" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F48" s="26" t="str">
+      <c r="F48" s="24" t="str">
         <v>Region 3</v>
       </c>
-      <c r="G48" s="26" t="str">
+      <c r="G48" s="24" t="str">
         <v>Product B</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="24">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F49" s="26" t="str">
+      <c r="F49" s="24" t="str">
         <v>Region 3</v>
       </c>
-      <c r="G49" s="26" t="str">
+      <c r="G49" s="24" t="str">
         <v>Product E</v>
       </c>
-      <c r="H49" s="26">
+      <c r="H49" s="24">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F50" s="26" t="str">
+      <c r="F50" s="24" t="str">
         <v>Region 2</v>
       </c>
-      <c r="G50" s="26" t="str">
+      <c r="G50" s="24" t="str">
         <v>Product D</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H50" s="24">
         <v>98</v>
       </c>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F51" s="26" t="str">
+      <c r="F51" s="24" t="str">
         <v>Region 2</v>
       </c>
-      <c r="G51" s="26" t="str">
+      <c r="G51" s="24" t="str">
         <v>Product B</v>
       </c>
-      <c r="H51" s="26">
+      <c r="H51" s="24">
         <v>66</v>
       </c>
     </row>
     <row r="52" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F52" s="26" t="str">
+      <c r="F52" s="24" t="str">
         <v>Region 2</v>
       </c>
-      <c r="G52" s="26" t="str">
+      <c r="G52" s="24" t="str">
         <v>Product E</v>
       </c>
-      <c r="H52" s="26">
+      <c r="H52" s="24">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F53" s="26" t="str">
+      <c r="F53" s="24" t="str">
         <v>Region 4</v>
       </c>
-      <c r="G53" s="26" t="str">
+      <c r="G53" s="24" t="str">
         <v>Product D</v>
       </c>
-      <c r="H53" s="26">
+      <c r="H53" s="24">
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F54" s="26" t="str">
+      <c r="F54" s="24" t="str">
         <v>Region 4</v>
       </c>
-      <c r="G54" s="26" t="str">
+      <c r="G54" s="24" t="str">
         <v>Product B</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H54" s="24">
         <v>57</v>
       </c>
     </row>
     <row r="55" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F55" s="26" t="str">
+      <c r="F55" s="24" t="str">
         <v>Region 4</v>
       </c>
-      <c r="G55" s="26" t="str">
+      <c r="G55" s="24" t="str">
         <v>Product E</v>
       </c>
-      <c r="H55" s="26">
+      <c r="H55" s="24">
         <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0520B225-0DE8-4C5E-8F61-2E80D05807A8}">
+  <dimension ref="A1:P97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="3" style="5" customWidth="1"/>
+    <col min="3" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="13" width="10.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" customWidth="1"/>
+    <col min="16" max="16" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="J1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="J3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="18">
+        <v>188</v>
+      </c>
+      <c r="L3" s="12">
+        <v>45</v>
+      </c>
+      <c r="M3" s="12">
+        <v>95</v>
+      </c>
+      <c r="N3" s="12">
+        <v>30</v>
+      </c>
+      <c r="O3" s="13">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="18">
+        <v>98</v>
+      </c>
+      <c r="E4" s="12">
+        <v>45</v>
+      </c>
+      <c r="F4" s="13">
+        <v>91</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="J4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="12">
+        <v>37</v>
+      </c>
+      <c r="L4" s="19">
+        <v>137</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>98</v>
+      </c>
+      <c r="O4" s="13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="12">
+        <v>37</v>
+      </c>
+      <c r="E5" s="19">
+        <v>71</v>
+      </c>
+      <c r="F5" s="13">
+        <v>23</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="J5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="12">
+        <v>180</v>
+      </c>
+      <c r="L5" s="12">
+        <v>61</v>
+      </c>
+      <c r="M5" s="12">
+        <v>69</v>
+      </c>
+      <c r="N5" s="12">
+        <v>114</v>
+      </c>
+      <c r="O5" s="20">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="31"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="12">
+        <v>92</v>
+      </c>
+      <c r="E6" s="12">
+        <v>39</v>
+      </c>
+      <c r="F6" s="20">
+        <v>90</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="J6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="15">
+        <v>51</v>
+      </c>
+      <c r="L6" s="15">
+        <v>57</v>
+      </c>
+      <c r="M6" s="15">
+        <v>80</v>
+      </c>
+      <c r="N6" s="15">
+        <v>73</v>
+      </c>
+      <c r="O6" s="16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="5"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="C8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="C10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="18">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10" s="12">
+        <v>95</v>
+      </c>
+      <c r="G10" s="13">
+        <v>74</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>41</v>
+      </c>
+      <c r="F11" s="12">
+        <v>80</v>
+      </c>
+      <c r="G11" s="13">
+        <v>17</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="C12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12">
+        <v>88</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
+      </c>
+      <c r="F12" s="12">
+        <v>69</v>
+      </c>
+      <c r="G12" s="20">
+        <v>70</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="2"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="C14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="2"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="2"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+      <c r="C16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12">
+        <v>77</v>
+      </c>
+      <c r="E16" s="12">
+        <v>22</v>
+      </c>
+      <c r="F16" s="20">
+        <v>37</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="2"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="C17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="12">
+        <v>98</v>
+      </c>
+      <c r="E17" s="19">
+        <v>66</v>
+      </c>
+      <c r="F17" s="13">
+        <v>59</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="2"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="C18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="12">
+        <v>32</v>
+      </c>
+      <c r="E18" s="12">
+        <v>57</v>
+      </c>
+      <c r="F18" s="13">
+        <v>29</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I21" s="4"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K25" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="25" t="str" cm="1">
+        <f t="array" ref="L25:P25">_xlfn._xlws.SORT(TRANSPOSE(_xlfn.UNIQUE(G26:G46)),1,1,TRUE)</f>
+        <v>Product A</v>
+      </c>
+      <c r="M25" s="25" t="str">
+        <v>Product B</v>
+      </c>
+      <c r="N25" s="26" t="str">
+        <v>Product C</v>
+      </c>
+      <c r="O25" s="25" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="P25" s="25" t="str">
+        <v>Product E</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F26" s="22" t="str" cm="1">
+        <f t="array" ref="F26:H37">_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C10:C12&amp;"|"&amp;D9:G9),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D10:G12))</f>
+        <v>Region 1</v>
+      </c>
+      <c r="G26" s="22" t="str">
+        <v>Product A</v>
+      </c>
+      <c r="H26" s="22">
+        <v>90</v>
+      </c>
+      <c r="K26" s="27" t="str" cm="1">
+        <f t="array" ref="K26:K29">_xlfn._xlws.SORT(_xlfn.UNIQUE(F26:F46))</f>
+        <v>Region 1</v>
+      </c>
+      <c r="L26" s="28">
+        <f>SUMIFS($H$26:$H$55,$G$26:$G$55,L$25,$F$26:$F$55,$K26)</f>
+        <v>188</v>
+      </c>
+      <c r="M26" s="28">
+        <f t="shared" ref="M26:P29" si="0">SUMIFS($H$26:$H$55,$G$26:$G$55,M$25,$F$26:$F$55,$K26)</f>
+        <v>45</v>
+      </c>
+      <c r="N26" s="28">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="O26" s="28">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="P26" s="28">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F27" s="22" t="str">
+        <v>Region 1</v>
+      </c>
+      <c r="G27" s="22" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="H27" s="22">
+        <v>30</v>
+      </c>
+      <c r="K27" s="27" t="str">
+        <v>Region 2</v>
+      </c>
+      <c r="L27" s="28">
+        <f t="shared" ref="L27:L29" si="1">SUMIFS($H$26:$H$55,$G$26:$G$55,L$25,$F$26:$F$55,$K27)</f>
+        <v>37</v>
+      </c>
+      <c r="M27" s="28">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="N27" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="28">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="P27" s="28">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F28" s="22" t="str">
+        <v>Region 1</v>
+      </c>
+      <c r="G28" s="22" t="str">
+        <v>Product C</v>
+      </c>
+      <c r="H28" s="22">
+        <v>95</v>
+      </c>
+      <c r="K28" s="27" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="L28" s="28">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="M28" s="28">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="N28" s="28">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="O28" s="28">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="P28" s="28">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F29" s="22" t="str">
+        <v>Region 1</v>
+      </c>
+      <c r="G29" s="22" t="str">
+        <v>Product E</v>
+      </c>
+      <c r="H29" s="22">
+        <v>74</v>
+      </c>
+      <c r="K29" s="27" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="L29" s="28">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="M29" s="28">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="N29" s="28">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="O29" s="28">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="P29" s="28">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F30" s="22" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="G30" s="22" t="str">
+        <v>Product A</v>
+      </c>
+      <c r="H30" s="22">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F31" s="22" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="G31" s="22" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="H31" s="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F32" s="22" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="G32" s="22" t="str">
+        <v>Product C</v>
+      </c>
+      <c r="H32" s="22">
+        <v>80</v>
+      </c>
+      <c r="K32" t="b" cm="1">
+        <f t="array" ref="K32:P36">K25:P29=J2:O6</f>
+        <v>1</v>
+      </c>
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F33" s="22" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="G33" s="22" t="str">
+        <v>Product E</v>
+      </c>
+      <c r="H33" s="22">
+        <v>17</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F34" s="22" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="G34" s="22" t="str">
+        <v>Product A</v>
+      </c>
+      <c r="H34" s="22">
+        <v>88</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F35" s="22" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="G35" s="22" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="H35" s="22">
+        <v>37</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="b">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F36" s="22" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="G36" s="22" t="str">
+        <v>Product C</v>
+      </c>
+      <c r="H36" s="22">
+        <v>69</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F37" s="22" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="G37" s="22" t="str">
+        <v>Product E</v>
+      </c>
+      <c r="H37" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F38" s="23" t="str" cm="1">
+        <f t="array" ref="F38:H46">_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C4:C6&amp;"|"&amp;D3:F3),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D4:F6))</f>
+        <v>Region 1</v>
+      </c>
+      <c r="G38" s="23" t="str">
+        <v>Product A</v>
+      </c>
+      <c r="H38" s="23">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F39" s="23" t="str">
+        <v>Region 1</v>
+      </c>
+      <c r="G39" s="23" t="str">
+        <v>Product B</v>
+      </c>
+      <c r="H39" s="23">
+        <v>45</v>
+      </c>
+      <c r="L39" cm="1">
+        <f t="array" ref="L39:L42">SUMIFS(H26:H55,F26:F55,_xlfn.ANCHORARRAY(K26),G26:G55,"Product A")</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F40" s="23" t="str">
+        <v>Region 1</v>
+      </c>
+      <c r="G40" s="23" t="str">
+        <v>Product E</v>
+      </c>
+      <c r="H40" s="23">
+        <v>91</v>
+      </c>
+      <c r="L40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F41" s="23" t="str">
+        <v>Region 2</v>
+      </c>
+      <c r="G41" s="23" t="str">
+        <v>Product A</v>
+      </c>
+      <c r="H41" s="23">
+        <v>37</v>
+      </c>
+      <c r="L41">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F42" s="23" t="str">
+        <v>Region 2</v>
+      </c>
+      <c r="G42" s="23" t="str">
+        <v>Product B</v>
+      </c>
+      <c r="H42" s="23">
+        <v>71</v>
+      </c>
+      <c r="L42">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F43" s="23" t="str">
+        <v>Region 2</v>
+      </c>
+      <c r="G43" s="23" t="str">
+        <v>Product E</v>
+      </c>
+      <c r="H43" s="23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F44" s="23" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="G44" s="23" t="str">
+        <v>Product A</v>
+      </c>
+      <c r="H44" s="23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F45" s="23" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="G45" s="23" t="str">
+        <v>Product B</v>
+      </c>
+      <c r="H45" s="23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F46" s="23" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="G46" s="23" t="str">
+        <v>Product E</v>
+      </c>
+      <c r="H46" s="23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F47" s="24" t="str" cm="1">
+        <f t="array" ref="F47:H55">_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C16:C18&amp;"|"&amp;D15:F15),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D16:F18))</f>
+        <v>Region 3</v>
+      </c>
+      <c r="G47" s="24" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="H47" s="24">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F48" s="24" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="G48" s="24" t="str">
+        <v>Product B</v>
+      </c>
+      <c r="H48" s="24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F49" s="24" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="G49" s="24" t="str">
+        <v>Product E</v>
+      </c>
+      <c r="H49" s="24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F50" s="24" t="str">
+        <v>Region 2</v>
+      </c>
+      <c r="G50" s="24" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="H50" s="24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F51" s="24" t="str">
+        <v>Region 2</v>
+      </c>
+      <c r="G51" s="24" t="str">
+        <v>Product B</v>
+      </c>
+      <c r="H51" s="24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F52" s="24" t="str">
+        <v>Region 2</v>
+      </c>
+      <c r="G52" s="24" t="str">
+        <v>Product E</v>
+      </c>
+      <c r="H52" s="24">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F53" s="24" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="G53" s="24" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="H53" s="24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F54" s="24" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="G54" s="24" t="str">
+        <v>Product B</v>
+      </c>
+      <c r="H54" s="24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F55" s="24" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="G55" s="24" t="str">
+        <v>Product E</v>
+      </c>
+      <c r="H55" s="24">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="29" t="str" cm="1">
+        <f t="array" ref="C60:H64">_xlfn.LET(_xlpm.u,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C10:C12&amp;"|"&amp;D9:G9),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D10:G12)),
+_xlpm.m,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C4:C6&amp;"|"&amp;D3:F3),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D4:F6)),
+_xlpm.l,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C16:C18&amp;"|"&amp;D15:F15),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D16:F18)),
+_xlpm.q,_xlfn.VSTACK(_xlpm.u,_xlpm.m,_xlpm.l),
+_xlpm.tt, _xlfn.CHOOSECOLS(_xlpm.q,3),
+_xlpm.tc,_xlfn._xlws.SORT(TRANSPOSE(_xlfn.UNIQUE(G26:G55)),1,1,TRUE),
+_xlpm.lh,_xlfn._xlws.SORT(_xlfn.UNIQUE(F26:F55)),
+_xlpm.zz,_xlfn.DROP(_xlfn.REDUCE("",_xlpm.tc,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.HSTACK(_xlpm.a,SUMIFS(H26:H55,F26:F55,_xlpm.lh,G26:G55,_xlpm.v)))),,1),
+_xlfn.HSTACK(_xlfn.VSTACK("Regions",_xlpm.lh),_xlfn.VSTACK(_xlpm.tc,_xlpm.zz))
+)</f>
+        <v>Regions</v>
+      </c>
+      <c r="D60" s="25" t="str">
+        <v>Product A</v>
+      </c>
+      <c r="E60" s="25" t="str">
+        <v>Product B</v>
+      </c>
+      <c r="F60" s="26" t="str">
+        <v>Product C</v>
+      </c>
+      <c r="G60" s="25" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="H60" s="25" t="str">
+        <v>Product E</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="27" t="str">
+        <v>Region 1</v>
+      </c>
+      <c r="D61" s="28">
+        <v>188</v>
+      </c>
+      <c r="E61" s="28">
+        <v>45</v>
+      </c>
+      <c r="F61" s="28">
+        <v>95</v>
+      </c>
+      <c r="G61" s="28">
+        <v>30</v>
+      </c>
+      <c r="H61" s="28">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="27" t="str">
+        <v>Region 2</v>
+      </c>
+      <c r="D62" s="28">
+        <v>37</v>
+      </c>
+      <c r="E62" s="28">
+        <v>137</v>
+      </c>
+      <c r="F62" s="28">
+        <v>0</v>
+      </c>
+      <c r="G62" s="28">
+        <v>98</v>
+      </c>
+      <c r="H62" s="28">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="27" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="D63" s="28">
+        <v>180</v>
+      </c>
+      <c r="E63" s="28">
+        <v>61</v>
+      </c>
+      <c r="F63" s="28">
+        <v>69</v>
+      </c>
+      <c r="G63" s="28">
+        <v>114</v>
+      </c>
+      <c r="H63" s="28">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="27" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="D64" s="28">
+        <v>51</v>
+      </c>
+      <c r="E64" s="28">
+        <v>57</v>
+      </c>
+      <c r="F64" s="28">
+        <v>80</v>
+      </c>
+      <c r="G64" s="28">
+        <v>73</v>
+      </c>
+      <c r="H64" s="28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C67" t="str" cm="1">
+        <f t="array" ref="C67:H97">_xlfn.LET(_xlpm.u,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C10:C12&amp;"|"&amp;D9:G9),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D10:G12)),
+_xlpm.m,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C4:C6&amp;"|"&amp;D3:F3),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D4:F6)),
+_xlpm.l,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C16:C18&amp;"|"&amp;D15:F15),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D16:F18)),
+_xlpm.q,_xlfn.VSTACK(_xlpm.u,_xlpm.m,_xlpm.l),
+_xlpm.tt0, _xlfn.CHOOSECOLS(_xlpm.q,2),
+_xlpm.tc,_xlfn._xlws.SORT(TRANSPOSE(_xlfn.UNIQUE(G26:G55)),1,1,TRUE),
+_xlpm.lh,_xlfn._xlws.SORT(_xlfn.UNIQUE(F26:F55)),
+_xlpm.zz,_xlfn.DROP(_xlfn.REDUCE("",_xlpm.tc,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.HSTACK(_xlpm.a,SUMIFS(H26:H55,_xlpm.tt0,"Product A")))),,1),
+_xlfn.HSTACK(_xlfn.VSTACK("Regions",_xlpm.lh),_xlfn.VSTACK(_xlpm.tc,_xlpm.zz))
+)</f>
+        <v>Regions</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Product A</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Product B</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Product C</v>
+      </c>
+      <c r="G67" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="H67" t="str">
+        <v>Product E</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C68" t="str">
+        <v>Region 1</v>
+      </c>
+      <c r="D68" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E68" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F68" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G68" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H68" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C69" t="str">
+        <v>Region 2</v>
+      </c>
+      <c r="D69" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G69" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H69" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C70" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="D70" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G70" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C71" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="D71" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E71" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F71" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G71" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H71" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C72" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D72" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E72" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F72" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G72" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H72" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D73" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E73" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F73" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G73" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H73" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D74" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E74" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F74" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G74" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H74" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C75" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D75" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E75" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G75" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H75" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C76" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D76" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E76" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G76" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H76" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D77" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E77" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F77" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G77" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H77" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C78" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D78" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E78" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F78" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G78" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H78" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C79" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D79" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E79" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F79" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G79" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H79" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C80" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D80" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E80" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F80" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G80" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H80" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D81" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E81" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G81" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H81" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C82" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D82" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E82" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F82" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G82" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H82" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D83" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E83" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F83" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G83" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H83" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C84" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D84" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E84" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F84" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G84" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H84" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C85" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D85" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E85" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F85" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G85" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H85" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D86" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E86" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F86" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G86" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H86" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C87" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D87" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E87" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F87" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G87" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H87" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C88" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D88" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E88" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F88" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G88" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H88" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C89" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D89" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G89" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H89" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C90" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D90" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E90" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F90" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G90" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H90" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D91" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E91" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F91" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G91" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H91" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D92" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E92" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F92" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G92" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H92" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C93" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D93" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E93" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F93" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G93" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H93" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C94" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D94" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E94" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F94" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G94" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H94" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D95" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E95" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F95" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G95" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H95" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C96" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D96" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E96" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F96" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G96" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H96" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C97" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D97" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E97" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F97" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G97" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H97" t="e">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/CH-044 Combine Tables.xlsx
+++ b/CH-044 Combine Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9648D486-4C50-4EC7-90ED-FE2A02E4B75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{64C55396-FB45-492D-B9BD-78BE557FF50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67FDEBF2-0931-4FC7-ADC6-BC2228979980}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="27">
   <si>
     <t>Product A</t>
   </si>
@@ -114,6 +114,33 @@
   </si>
   <si>
     <t>One Formula</t>
+  </si>
+  <si>
+    <t>HSTACK(VSTACK("Regions",lh),VSTACK(tc,zz))</t>
+  </si>
+  <si>
+    <t>Other Solutions</t>
+  </si>
+  <si>
+    <t>Let's understand the F command. That is the key command in this solution.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Array to be carved up</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Rows to take</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Columns to take</t>
   </si>
 </sst>
 </file>
@@ -3335,10 +3362,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0520B225-0DE8-4C5E-8F61-2E80D05807A8}">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="N56" sqref="N55:N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4265,7 +4292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F49" s="24" t="str">
         <v>Region 3</v>
       </c>
@@ -4276,7 +4303,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F50" s="24" t="str">
         <v>Region 2</v>
       </c>
@@ -4287,7 +4314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F51" s="24" t="str">
         <v>Region 2</v>
       </c>
@@ -4298,7 +4325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F52" s="24" t="str">
         <v>Region 2</v>
       </c>
@@ -4309,7 +4336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F53" s="24" t="str">
         <v>Region 4</v>
       </c>
@@ -4320,7 +4347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F54" s="24" t="str">
         <v>Region 4</v>
       </c>
@@ -4331,7 +4358,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F55" s="24" t="str">
         <v>Region 4</v>
       </c>
@@ -4342,12 +4369,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C60" s="29" t="str" cm="1">
         <f t="array" ref="C60:H64">_xlfn.LET(_xlpm.u,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C10:C12&amp;"|"&amp;D9:G9),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D10:G12)),
 _xlpm.m,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C4:C6&amp;"|"&amp;D3:F3),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D4:F6)),
@@ -4377,7 +4409,7 @@
         <v>Product E</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C61" s="27" t="str">
         <v>Region 1</v>
       </c>
@@ -4397,7 +4429,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C62" s="27" t="str">
         <v>Region 2</v>
       </c>
@@ -4417,7 +4449,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C63" s="27" t="str">
         <v>Region 3</v>
       </c>
@@ -4437,7 +4469,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C64" s="27" t="str">
         <v>Region 4</v>
       </c>
@@ -4457,634 +4489,210 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C67" t="str" cm="1">
-        <f t="array" ref="C67:H97">_xlfn.LET(_xlpm.u,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C10:C12&amp;"|"&amp;D9:G9),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D10:G12)),
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C67" cm="1">
+        <f t="array" ref="C67:G67">_xlfn.LET(_xlpm.u,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C10:C12&amp;"|"&amp;D9:G9),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D10:G12)),
 _xlpm.m,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C4:C6&amp;"|"&amp;D3:F3),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D4:F6)),
 _xlpm.l,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C16:C18&amp;"|"&amp;D15:F15),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D16:F18)),
 _xlpm.q,_xlfn.VSTACK(_xlpm.u,_xlpm.m,_xlpm.l),
-_xlpm.tt0, _xlfn.CHOOSECOLS(_xlpm.q,2),
+_xlpm.tt_, _xlfn.CHOOSECOLS(_xlpm.q,2),
 _xlpm.tc,_xlfn._xlws.SORT(TRANSPOSE(_xlfn.UNIQUE(G26:G55)),1,1,TRUE),
 _xlpm.lh,_xlfn._xlws.SORT(_xlfn.UNIQUE(F26:F55)),
-_xlpm.zz,_xlfn.DROP(_xlfn.REDUCE("",_xlpm.tc,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.HSTACK(_xlpm.a,SUMIFS(H26:H55,_xlpm.tt0,"Product A")))),,1),
-_xlfn.HSTACK(_xlfn.VSTACK("Regions",_xlpm.lh),_xlfn.VSTACK(_xlpm.tc,_xlpm.zz))
+_xlpm.zz,_xlfn.DROP(_xlfn.REDUCE("",_xlpm.tc,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.HSTACK(_xlpm.a,SUM(_xlfn.TAKE(_xlfn._xlws.FILTER(_xlpm.q,_xlfn.CHOOSECOLS(_xlpm.q,2)=_xlpm.v),,-1))))),,1),
+_xlpm.zz
 )</f>
+        <v>456</v>
+      </c>
+      <c r="D67">
+        <v>300</v>
+      </c>
+      <c r="E67">
+        <v>244</v>
+      </c>
+      <c r="F67">
+        <v>315</v>
+      </c>
+      <c r="G67">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C72" t="str" cm="1">
+        <f t="array" ref="C72:H76">_xlfn.LET(_xlpm.A, C3:F6, _xlpm.B, C9:G12, _xlpm.C, C15:F18, _xlpm.F, _xlfn.LAMBDA(_xlpm.x,_xlpm.y,_xlpm.z, _xlfn.DROP(_xlfn.UNIQUE(_xlfn.TAKE(_xlpm.x, _xlpm.y, _xlpm.z), _xlpm.y), _xlpm.z, _xlpm.y)), _xlpm.P, _xlpm.F(_xlfn.HSTACK(_xlpm.A,_xlpm.B,_xlpm.C),1,), _xlpm.R, _xlpm.F(_xlfn.VSTACK(_xlpm.A,_xlpm.B,_xlpm.C),,1), _xlpm.G, _xlfn.LAMBDA(_xlpm.i, _xlfn.XLOOKUP(_xlpm.R&amp;_xlfn.SORTBY(_xlpm.P, RIGHT(_xlpm.P)), _xlfn.TOCOL(_xlpm.F(_xlpm.i,,1)&amp;_xlpm.F(_xlpm.i,1,)), _xlfn.TOCOL(_xlfn.IFS(_xlpm.i, _xlpm.i), 2), 0)), _xlfn.VSTACK(_xlfn.HSTACK(C3,_xlfn.SORTBY(_xlpm.P,RIGHT(_xlpm.P))),_xlfn.HSTACK(_xlpm.R,_xlpm.G(_xlpm.A)+_xlpm.G(_xlpm.B)+_xlpm.G(_xlpm.C))))</f>
         <v>Regions</v>
       </c>
-      <c r="D67" t="str">
+      <c r="D72" t="str">
         <v>Product A</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E72" t="str">
         <v>Product B</v>
       </c>
-      <c r="F67" t="str">
+      <c r="F72" s="7" t="str">
         <v>Product C</v>
       </c>
-      <c r="G67" t="str">
+      <c r="G72" t="str">
         <v>Product D</v>
       </c>
-      <c r="H67" t="str">
+      <c r="H72" t="str">
         <v>Product E</v>
       </c>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C68" t="str">
+      <c r="J72" cm="1">
+        <f t="array" ref="J72:J80">_xlfn.LET(_xlpm.A, C3:F6,
+     _xlpm.B, C9:G12,
+     _xlpm.C, C15:F18,
+     _xlpm.F, _xlfn.LAMBDA(_xlpm.x,_xlpm.y,_xlpm.z, _xlfn.DROP(_xlfn.UNIQUE(_xlfn.TAKE(_xlpm.x, _xlpm.y, _xlpm.z), _xlpm.y), _xlpm.z, _xlpm.y)),
+     _xlpm.P, _xlpm.F(_xlfn.HSTACK(_xlpm.A,_xlpm.B,_xlpm.C),1,),
+     _xlpm.R, _xlpm.F(_xlfn.VSTACK(_xlpm.A,_xlpm.B,_xlpm.C),,1),
+     _xlpm.G, _xlfn.LAMBDA(_xlpm.i, _xlfn.XLOOKUP(_xlpm.R&amp;_xlfn.SORTBY(_xlpm.P, RIGHT(_xlpm.P)), _xlfn.TOCOL(_xlpm.F(_xlpm.i,,1)&amp;_xlpm.F(_xlpm.i,1,)), _xlfn.TOCOL(_xlfn.IFS(_xlpm.i, _xlpm.i), 2), 0)),
+     _xlfn.TOCOL(_xlfn.IFS(_xlpm.A,_xlpm.A),2))</f>
+        <v>98</v>
+      </c>
+      <c r="N72"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C73" t="str">
         <v>Region 1</v>
       </c>
-      <c r="D68" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E68" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F68" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G68" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H68" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C69" t="str">
+      <c r="D73">
+        <v>188</v>
+      </c>
+      <c r="E73">
+        <v>45</v>
+      </c>
+      <c r="F73" s="7">
+        <v>95</v>
+      </c>
+      <c r="G73">
+        <v>30</v>
+      </c>
+      <c r="H73">
+        <v>165</v>
+      </c>
+      <c r="J73">
+        <v>45</v>
+      </c>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C74" t="str">
         <v>Region 2</v>
       </c>
-      <c r="D69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G69" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H69" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C70" t="str">
+      <c r="D74">
+        <v>37</v>
+      </c>
+      <c r="E74">
+        <v>137</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>98</v>
+      </c>
+      <c r="H74">
+        <v>82</v>
+      </c>
+      <c r="J74">
+        <v>91</v>
+      </c>
+      <c r="N74"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C75" t="str">
         <v>Region 3</v>
       </c>
-      <c r="D70" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E70" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F70" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G70" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H70" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C71" t="str">
+      <c r="D75">
+        <v>180</v>
+      </c>
+      <c r="E75">
+        <v>61</v>
+      </c>
+      <c r="F75" s="7">
+        <v>69</v>
+      </c>
+      <c r="G75">
+        <v>114</v>
+      </c>
+      <c r="H75">
+        <v>197</v>
+      </c>
+      <c r="J75">
+        <v>37</v>
+      </c>
+      <c r="N75"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C76" t="str">
         <v>Region 4</v>
       </c>
-      <c r="D71" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E71" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F71" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G71" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H71" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D72" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E72" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F72" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G72" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H72" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G73" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H73" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D74" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E74" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F74" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G74" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H74" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D75" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E75" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F75" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G75" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H75" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D76" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E76" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F76" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G76" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H76" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D77" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E77" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F77" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G77" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H77" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D78" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E78" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F78" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G78" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H78" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H79" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D80" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E80" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F80" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G80" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H80" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D81" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E81" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F81" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G81" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H81" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G82" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H82" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D83" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E83" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F83" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G83" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H83" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G84" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H84" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D85" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E85" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F85" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G85" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H85" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G86" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H86" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G87" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H87" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G88" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H88" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G89" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H89" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G90" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H90" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D91" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E91" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F91" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G91" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H91" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D92" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E92" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F92" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G92" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H92" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D93" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E93" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F93" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G93" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H93" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D94" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E94" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F94" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G94" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H94" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D95" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E95" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F95" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G95" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H95" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D96" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E96" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F96" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G96" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H96" t="e">
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D97" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E97" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="F97" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G97" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="H97" t="e">
-        <v>#VALUE!</v>
+      <c r="D76">
+        <v>51</v>
+      </c>
+      <c r="E76">
+        <v>57</v>
+      </c>
+      <c r="F76" s="7">
+        <v>80</v>
+      </c>
+      <c r="G76">
+        <v>73</v>
+      </c>
+      <c r="H76">
+        <v>46</v>
+      </c>
+      <c r="J76">
+        <v>71</v>
+      </c>
+      <c r="N76"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J77">
+        <v>23</v>
+      </c>
+      <c r="M77" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J78">
+        <v>92</v>
+      </c>
+      <c r="N78"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J79">
+        <v>39</v>
+      </c>
+      <c r="M79" t="s">
+        <v>21</v>
+      </c>
+      <c r="N79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J80">
+        <v>90</v>
+      </c>
+      <c r="M80" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/CH-044 Combine Tables.xlsx
+++ b/CH-044 Combine Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{64C55396-FB45-492D-B9BD-78BE557FF50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67FDEBF2-0931-4FC7-ADC6-BC2228979980}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="8_{64C55396-FB45-492D-B9BD-78BE557FF50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1E88C86-6113-47E4-A3BB-40E640234532}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="43">
   <si>
     <t>Product A</t>
   </si>
@@ -142,12 +142,60 @@
   <si>
     <t>Columns to take</t>
   </si>
+  <si>
+    <t>Let's explore the F utility.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Region 1Product A</t>
+  </si>
+  <si>
+    <t>Lesssons</t>
+  </si>
+  <si>
+    <t>IFS(A,A) can be used to select text</t>
+  </si>
+  <si>
+    <t>My Solution</t>
+  </si>
+  <si>
+    <t>SUMIFS is a problem in these array formulas, but SUM works fine</t>
+  </si>
+  <si>
+    <t>when coupled with FILTER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +243,13 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -271,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -423,12 +478,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -483,12 +554,36 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3362,10 +3457,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0520B225-0DE8-4C5E-8F61-2E80D05807A8}">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="N56" sqref="N55:N56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74:C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3375,7 +3470,7 @@
     <col min="3" max="5" width="10.109375" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="11" max="13" width="10.109375" customWidth="1"/>
@@ -3840,12 +3935,11 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F26" s="22" t="str" cm="1">
-        <f t="array" ref="F26:H37">_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C10:C12&amp;"|"&amp;D9:G9),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D10:G12))</f>
-        <v>Region 1</v>
-      </c>
-      <c r="G26" s="22" t="str">
-        <v>Product A</v>
+      <c r="F26" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>0</v>
       </c>
       <c r="H26" s="22">
         <v>90</v>
@@ -3876,11 +3970,11 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F27" s="22" t="str">
-        <v>Region 1</v>
-      </c>
-      <c r="G27" s="22" t="str">
-        <v>Product D</v>
+      <c r="F27" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="H27" s="22">
         <v>30</v>
@@ -3910,11 +4004,11 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F28" s="22" t="str">
-        <v>Region 1</v>
-      </c>
-      <c r="G28" s="22" t="str">
-        <v>Product C</v>
+      <c r="F28" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="H28" s="22">
         <v>95</v>
@@ -3944,11 +4038,11 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F29" s="22" t="str">
-        <v>Region 1</v>
-      </c>
-      <c r="G29" s="22" t="str">
-        <v>Product E</v>
+      <c r="F29" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="22">
         <v>74</v>
@@ -3978,33 +4072,33 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F30" s="22" t="str">
-        <v>Region 4</v>
-      </c>
-      <c r="G30" s="22" t="str">
-        <v>Product A</v>
+      <c r="F30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>0</v>
       </c>
       <c r="H30" s="22">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F31" s="22" t="str">
-        <v>Region 4</v>
-      </c>
-      <c r="G31" s="22" t="str">
-        <v>Product D</v>
+      <c r="F31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="H31" s="22">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F32" s="22" t="str">
-        <v>Region 4</v>
-      </c>
-      <c r="G32" s="22" t="str">
-        <v>Product C</v>
+      <c r="F32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="H32" s="22">
         <v>80</v>
@@ -4029,12 +4123,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F33" s="22" t="str">
-        <v>Region 4</v>
-      </c>
-      <c r="G33" s="22" t="str">
-        <v>Product E</v>
+    <row r="33" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="H33" s="22">
         <v>17</v>
@@ -4058,12 +4152,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F34" s="22" t="str">
-        <v>Region 3</v>
-      </c>
-      <c r="G34" s="22" t="str">
-        <v>Product A</v>
+    <row r="34" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F34" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>0</v>
       </c>
       <c r="H34" s="22">
         <v>88</v>
@@ -4087,12 +4181,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F35" s="22" t="str">
-        <v>Region 3</v>
-      </c>
-      <c r="G35" s="22" t="str">
-        <v>Product D</v>
+    <row r="35" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F35" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>9</v>
       </c>
       <c r="H35" s="22">
         <v>37</v>
@@ -4116,12 +4210,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F36" s="22" t="str">
-        <v>Region 3</v>
-      </c>
-      <c r="G36" s="22" t="str">
-        <v>Product C</v>
+    <row r="36" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F36" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>2</v>
       </c>
       <c r="H36" s="22">
         <v>69</v>
@@ -4145,35 +4239,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F37" s="22" t="str">
-        <v>Region 3</v>
-      </c>
-      <c r="G37" s="22" t="str">
-        <v>Product E</v>
+    <row r="37" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F37" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="H37" s="22">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F38" s="23" t="str" cm="1">
-        <f t="array" ref="F38:H46">_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C4:C6&amp;"|"&amp;D3:F3),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D4:F6))</f>
-        <v>Region 1</v>
-      </c>
-      <c r="G38" s="23" t="str">
-        <v>Product A</v>
+    <row r="38" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F38" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="H38" s="23">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F39" s="23" t="str">
-        <v>Region 1</v>
-      </c>
-      <c r="G39" s="23" t="str">
-        <v>Product B</v>
+    <row r="39" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F39" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>1</v>
       </c>
       <c r="H39" s="23">
         <v>45</v>
@@ -4183,12 +4276,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F40" s="23" t="str">
-        <v>Region 1</v>
-      </c>
-      <c r="G40" s="23" t="str">
-        <v>Product E</v>
+    <row r="40" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F40" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="H40" s="23">
         <v>91</v>
@@ -4197,12 +4290,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F41" s="23" t="str">
-        <v>Region 2</v>
-      </c>
-      <c r="G41" s="23" t="str">
-        <v>Product A</v>
+    <row r="41" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F41" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="H41" s="23">
         <v>37</v>
@@ -4211,12 +4304,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F42" s="23" t="str">
-        <v>Region 2</v>
-      </c>
-      <c r="G42" s="23" t="str">
-        <v>Product B</v>
+    <row r="42" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F42" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>1</v>
       </c>
       <c r="H42" s="23">
         <v>71</v>
@@ -4225,161 +4318,172 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F43" s="23" t="str">
-        <v>Region 2</v>
-      </c>
-      <c r="G43" s="23" t="str">
-        <v>Product E</v>
+    <row r="43" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F43" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="H43" s="23">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F44" s="23" t="str">
-        <v>Region 3</v>
-      </c>
-      <c r="G44" s="23" t="str">
-        <v>Product A</v>
+    <row r="44" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F44" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="H44" s="23">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F45" s="23" t="str">
-        <v>Region 3</v>
-      </c>
-      <c r="G45" s="23" t="str">
-        <v>Product B</v>
+    <row r="45" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F45" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>1</v>
       </c>
       <c r="H45" s="23">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F46" s="23" t="str">
-        <v>Region 3</v>
-      </c>
-      <c r="G46" s="23" t="str">
-        <v>Product E</v>
+    <row r="46" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F46" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="H46" s="23">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F47" s="24" t="str" cm="1">
-        <f t="array" ref="F47:H55">_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C16:C18&amp;"|"&amp;D15:F15),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D16:F18))</f>
-        <v>Region 3</v>
-      </c>
-      <c r="G47" s="24" t="str">
-        <v>Product D</v>
+    <row r="47" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F47" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="H47" s="24">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F48" s="24" t="str">
-        <v>Region 3</v>
-      </c>
-      <c r="G48" s="24" t="str">
-        <v>Product B</v>
+      <c r="U47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="F48" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="H48" s="24">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F49" s="24" t="str">
-        <v>Region 3</v>
-      </c>
-      <c r="G49" s="24" t="str">
-        <v>Product E</v>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F49" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="H49" s="24">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F50" s="24" t="str">
-        <v>Region 2</v>
-      </c>
-      <c r="G50" s="24" t="str">
-        <v>Product D</v>
+      <c r="U49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F50" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="H50" s="24">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F51" s="24" t="str">
-        <v>Region 2</v>
-      </c>
-      <c r="G51" s="24" t="str">
-        <v>Product B</v>
+      <c r="U50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F51" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="H51" s="24">
         <v>66</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F52" s="24" t="str">
-        <v>Region 2</v>
-      </c>
-      <c r="G52" s="24" t="str">
-        <v>Product E</v>
+      <c r="U51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F52" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="H52" s="24">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F53" s="24" t="str">
-        <v>Region 4</v>
-      </c>
-      <c r="G53" s="24" t="str">
-        <v>Product D</v>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F53" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="H53" s="24">
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F54" s="24" t="str">
-        <v>Region 4</v>
-      </c>
-      <c r="G54" s="24" t="str">
-        <v>Product B</v>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F54" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>1</v>
       </c>
       <c r="H54" s="24">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F55" s="24" t="str">
-        <v>Region 4</v>
-      </c>
-      <c r="G55" s="24" t="str">
-        <v>Product E</v>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="F55" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="H55" s="24">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="O56" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C60" s="29" t="str" cm="1">
         <f t="array" ref="C60:H64">_xlfn.LET(_xlpm.u,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C10:C12&amp;"|"&amp;D9:G9),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D10:G12)),
 _xlpm.m,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C4:C6&amp;"|"&amp;D3:F3),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D4:F6)),
@@ -4387,7 +4491,7 @@
 _xlpm.q,_xlfn.VSTACK(_xlpm.u,_xlpm.m,_xlpm.l),
 _xlpm.tt, _xlfn.CHOOSECOLS(_xlpm.q,3),
 _xlpm.tc,_xlfn._xlws.SORT(TRANSPOSE(_xlfn.UNIQUE(G26:G55)),1,1,TRUE),
-_xlpm.lh,_xlfn._xlws.SORT(_xlfn.UNIQUE(F26:F55)),
+_xlpm.lh,_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.TAKE(_xlpm.q,,1))),
 _xlpm.zz,_xlfn.DROP(_xlfn.REDUCE("",_xlpm.tc,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.HSTACK(_xlpm.a,SUMIFS(H26:H55,F26:F55,_xlpm.lh,G26:G55,_xlpm.v)))),,1),
 _xlfn.HSTACK(_xlfn.VSTACK("Regions",_xlpm.lh),_xlfn.VSTACK(_xlpm.tc,_xlpm.zz))
 )</f>
@@ -4409,7 +4513,7 @@
         <v>Product E</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C61" s="27" t="str">
         <v>Region 1</v>
       </c>
@@ -4429,7 +4533,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C62" s="27" t="str">
         <v>Region 2</v>
       </c>
@@ -4449,7 +4553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C63" s="27" t="str">
         <v>Region 3</v>
       </c>
@@ -4469,7 +4573,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C64" s="27" t="str">
         <v>Region 4</v>
       </c>
@@ -4489,60 +4593,285 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C67" cm="1">
-        <f t="array" ref="C67:G67">_xlfn.LET(_xlpm.u,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C10:C12&amp;"|"&amp;D9:G9),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D10:G12)),
-_xlpm.m,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C4:C6&amp;"|"&amp;D3:F3),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D4:F6)),
-_xlpm.l,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C16:C18&amp;"|"&amp;D15:F15),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D16:F18)),
-_xlpm.q,_xlfn.VSTACK(_xlpm.u,_xlpm.m,_xlpm.l),
-_xlpm.tt_, _xlfn.CHOOSECOLS(_xlpm.q,2),
-_xlpm.tc,_xlfn._xlws.SORT(TRANSPOSE(_xlfn.UNIQUE(G26:G55)),1,1,TRUE),
-_xlpm.lh,_xlfn._xlws.SORT(_xlfn.UNIQUE(F26:F55)),
-_xlpm.zz,_xlfn.DROP(_xlfn.REDUCE("",_xlpm.tc,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.HSTACK(_xlpm.a,SUM(_xlfn.TAKE(_xlfn._xlws.FILTER(_xlpm.q,_xlfn.CHOOSECOLS(_xlpm.q,2)=_xlpm.v),,-1))))),,1),
-_xlpm.zz
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A66" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C68" s="33" t="str" cm="1">
+        <f t="array" ref="C68:H72">_xlfn.LET(_xlpm.u,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C10:C12&amp;"|"&amp;D9:G9),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D10:G12)),
+     _xlpm.m,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C4:C6&amp;"|"&amp;D3:F3),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D4:F6)),
+     _xlpm.l,_xlfn.HSTACK(_xlfn.DROP(_xlfn.REDUCE("",_xlfn.TOCOL(C16:C18&amp;"|"&amp;D15:F15),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,"|")))),1),_xlfn.TOCOL(D16:F18)),
+     _xlpm.q,_xlfn.VSTACK(_xlpm.u,_xlpm.m,_xlpm.l),
+     _xlpm.tc,_xlfn._xlws.SORT(TRANSPOSE(_xlfn.UNIQUE(_xlfn.CHOOSECOLS(_xlpm.q,2))),1,1,TRUE),
+     _xlpm.lh,_xlfn._xlws.SORT(_xlfn.UNIQUE(_xlfn.CHOOSECOLS(_xlpm.q,1))),
+     _xlpm.zz,_xlfn.MAP(_xlpm.lh&amp;_xlpm.tc,_xlfn.LAMBDA(_xlpm.x,SUM(_xlfn._xlws.FILTER(_xlpm.q,_xlfn.CHOOSECOLS(_xlpm.q,1)&amp;_xlfn.CHOOSECOLS(_xlpm.q,2)=_xlpm.x,0)))),
+     _xlfn.HSTACK(_xlfn.VSTACK("Regions",_xlpm.lh),_xlfn.VSTACK(_xlpm.tc,_xlpm.zz))
 )</f>
-        <v>456</v>
-      </c>
-      <c r="D67">
-        <v>300</v>
-      </c>
-      <c r="E67">
-        <v>244</v>
-      </c>
-      <c r="F67">
-        <v>315</v>
-      </c>
-      <c r="G67">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="21" t="s">
+        <v>Regions</v>
+      </c>
+      <c r="D68" s="36" t="str">
+        <v>Product A</v>
+      </c>
+      <c r="E68" s="36" t="str">
+        <v>Product B</v>
+      </c>
+      <c r="F68" s="34" t="str">
+        <v>Product C</v>
+      </c>
+      <c r="G68" s="36" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="H68" s="36" t="str">
+        <v>Product E</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C69" s="37" t="str">
+        <v>Region 1</v>
+      </c>
+      <c r="D69" s="35">
+        <v>188</v>
+      </c>
+      <c r="E69" s="35">
+        <v>45</v>
+      </c>
+      <c r="F69" s="35">
+        <v>95</v>
+      </c>
+      <c r="G69" s="35">
+        <v>30</v>
+      </c>
+      <c r="H69" s="35">
+        <v>165</v>
+      </c>
+      <c r="J69" t="str" cm="1">
+        <f t="array" ref="J69:L70">_xlfn.LET(_xlpm.q, F26:H55, _xlfn._xlws.FILTER(_xlpm.q,_xlfn.CHOOSECOLS(_xlpm.q,1)&amp;_xlfn.CHOOSECOLS(_xlpm.q,2)="Region 4Product D",0))</f>
+        <v>Region 4</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="L69">
+        <v>41</v>
+      </c>
+      <c r="N69" s="7" t="str" cm="1">
+        <f t="array" ref="N69:N98">_xlfn.LET(_xlpm.q, F26:H55,_xlfn.CHOOSECOLS(_xlpm.q,1)&amp;_xlfn.CHOOSECOLS(_xlpm.q,2))</f>
+        <v>Region 1Product A</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C70" s="37" t="str">
+        <v>Region 2</v>
+      </c>
+      <c r="D70" s="35">
+        <v>37</v>
+      </c>
+      <c r="E70" s="35">
+        <v>137</v>
+      </c>
+      <c r="F70" s="35">
+        <v>0</v>
+      </c>
+      <c r="G70" s="35">
+        <v>98</v>
+      </c>
+      <c r="H70" s="35">
+        <v>82</v>
+      </c>
+      <c r="J70" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="K70" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="L70">
+        <v>32</v>
+      </c>
+      <c r="N70" s="7" t="str">
+        <v>Region 1Product D</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C71" s="37" t="str">
+        <v>Region 3</v>
+      </c>
+      <c r="D71" s="35">
+        <v>180</v>
+      </c>
+      <c r="E71" s="35">
+        <v>61</v>
+      </c>
+      <c r="F71" s="35">
+        <v>69</v>
+      </c>
+      <c r="G71" s="35">
+        <v>114</v>
+      </c>
+      <c r="H71" s="35">
+        <v>197</v>
+      </c>
+      <c r="N71" s="7" t="str">
+        <v>Region 1Product C</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C72" s="37" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="D72" s="35">
+        <v>51</v>
+      </c>
+      <c r="E72" s="35">
+        <v>57</v>
+      </c>
+      <c r="F72" s="35">
+        <v>80</v>
+      </c>
+      <c r="G72" s="35">
+        <v>73</v>
+      </c>
+      <c r="H72" s="35">
+        <v>46</v>
+      </c>
+      <c r="N72" s="7" t="str">
+        <v>Region 1Product E</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N73" s="7" t="str">
+        <v>Region 4Product A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N74" s="7" t="str">
+        <v>Region 4Product D</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N75" s="7" t="str">
+        <v>Region 4Product C</v>
+      </c>
+      <c r="T75" t="s">
+        <v>28</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N76" s="7" t="str">
+        <v>Region 4Product E</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76" t="s">
+        <v>29</v>
+      </c>
+      <c r="V76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N77" s="7" t="str">
+        <v>Region 3Product A</v>
+      </c>
+      <c r="T77">
+        <v>4</v>
+      </c>
+      <c r="U77">
+        <v>5</v>
+      </c>
+      <c r="V77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N78" s="7" t="str">
+        <v>Region 3Product D</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N79" s="7" t="str">
+        <v>Region 3Product C</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N80" s="7" t="str">
+        <v>Region 3Product E</v>
+      </c>
+      <c r="T80" t="e" cm="1">
+        <f t="array" ref="T80:V82">_xlfn.IFS(T75:V77,T75:V77)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A81" s="21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C72" t="str" cm="1">
-        <f t="array" ref="C72:H76">_xlfn.LET(_xlpm.A, C3:F6, _xlpm.B, C9:G12, _xlpm.C, C15:F18, _xlpm.F, _xlfn.LAMBDA(_xlpm.x,_xlpm.y,_xlpm.z, _xlfn.DROP(_xlfn.UNIQUE(_xlfn.TAKE(_xlpm.x, _xlpm.y, _xlpm.z), _xlpm.y), _xlpm.z, _xlpm.y)), _xlpm.P, _xlpm.F(_xlfn.HSTACK(_xlpm.A,_xlpm.B,_xlpm.C),1,), _xlpm.R, _xlpm.F(_xlfn.VSTACK(_xlpm.A,_xlpm.B,_xlpm.C),,1), _xlpm.G, _xlfn.LAMBDA(_xlpm.i, _xlfn.XLOOKUP(_xlpm.R&amp;_xlfn.SORTBY(_xlpm.P, RIGHT(_xlpm.P)), _xlfn.TOCOL(_xlpm.F(_xlpm.i,,1)&amp;_xlpm.F(_xlpm.i,1,)), _xlfn.TOCOL(_xlfn.IFS(_xlpm.i, _xlpm.i), 2), 0)), _xlfn.VSTACK(_xlfn.HSTACK(C3,_xlfn.SORTBY(_xlpm.P,RIGHT(_xlpm.P))),_xlfn.HSTACK(_xlpm.R,_xlpm.G(_xlpm.A)+_xlpm.G(_xlpm.B)+_xlpm.G(_xlpm.C))))</f>
+      <c r="N81" s="7" t="str">
+        <v>Region 1Product A</v>
+      </c>
+      <c r="T81">
+        <v>3</v>
+      </c>
+      <c r="U81" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V81" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N82" s="7" t="str">
+        <v>Region 1Product B</v>
+      </c>
+      <c r="T82">
+        <v>4</v>
+      </c>
+      <c r="U82">
+        <v>5</v>
+      </c>
+      <c r="V82" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C83" t="str" cm="1">
+        <f t="array" ref="C83:H87">_xlfn.LET(_xlpm.A, C3:F6, _xlpm.B, C9:G12, _xlpm.C, C15:F18, _xlpm.F, _xlfn.LAMBDA(_xlpm.x,_xlpm.y,_xlpm.z, _xlfn.DROP(_xlfn.UNIQUE(_xlfn.TAKE(_xlpm.x, _xlpm.y, _xlpm.z), _xlpm.y), _xlpm.z, _xlpm.y)), _xlpm.P, _xlpm.F(_xlfn.HSTACK(_xlpm.A,_xlpm.B,_xlpm.C),1,), _xlpm.R, _xlpm.F(_xlfn.VSTACK(_xlpm.A,_xlpm.B,_xlpm.C),,1), _xlpm.G, _xlfn.LAMBDA(_xlpm.i, _xlfn.XLOOKUP(_xlpm.R&amp;_xlfn.SORTBY(_xlpm.P, RIGHT(_xlpm.P)), _xlfn.TOCOL(_xlpm.F(_xlpm.i,,1)&amp;_xlpm.F(_xlpm.i,1,)), _xlfn.TOCOL(_xlfn.IFS(_xlpm.i, _xlpm.i), 2), 0)), _xlfn.VSTACK(_xlfn.HSTACK(C3,_xlfn.SORTBY(_xlpm.P,RIGHT(_xlpm.P))),_xlfn.HSTACK(_xlpm.R,_xlpm.G(_xlpm.A)+_xlpm.G(_xlpm.B)+_xlpm.G(_xlpm.C))))</f>
         <v>Regions</v>
       </c>
-      <c r="D72" t="str">
+      <c r="D83" t="str">
         <v>Product A</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E83" t="str">
         <v>Product B</v>
       </c>
-      <c r="F72" s="7" t="str">
+      <c r="F83" s="7" t="str">
         <v>Product C</v>
       </c>
-      <c r="G72" t="str">
+      <c r="G83" t="str">
         <v>Product D</v>
       </c>
-      <c r="H72" t="str">
+      <c r="H83" t="str">
         <v>Product E</v>
       </c>
-      <c r="J72" cm="1">
-        <f t="array" ref="J72:J80">_xlfn.LET(_xlpm.A, C3:F6,
+      <c r="J83" cm="1">
+        <f t="array" ref="J83:J91">_xlfn.LET(_xlpm.A, C3:F6,
      _xlpm.B, C9:G12,
      _xlpm.C, C15:F18,
      _xlpm.F, _xlfn.LAMBDA(_xlpm.x,_xlpm.y,_xlpm.z, _xlfn.DROP(_xlfn.UNIQUE(_xlfn.TAKE(_xlpm.x, _xlpm.y, _xlpm.z), _xlpm.y), _xlpm.z, _xlpm.y)),
@@ -4552,147 +4881,248 @@
      _xlfn.TOCOL(_xlfn.IFS(_xlpm.A,_xlpm.A),2))</f>
         <v>98</v>
       </c>
-      <c r="N72"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C73" t="str">
+      <c r="N83" t="str">
+        <v>Region 1Product E</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C84" t="str">
         <v>Region 1</v>
       </c>
-      <c r="D73">
+      <c r="D84">
         <v>188</v>
       </c>
-      <c r="E73">
+      <c r="E84">
         <v>45</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F84" s="7">
         <v>95</v>
       </c>
-      <c r="G73">
+      <c r="G84">
         <v>30</v>
       </c>
-      <c r="H73">
+      <c r="H84">
         <v>165</v>
       </c>
-      <c r="J73">
+      <c r="J84">
         <v>45</v>
       </c>
-      <c r="N73"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C74" t="str">
+      <c r="N84" t="str">
+        <v>Region 2Product A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C85" t="str">
         <v>Region 2</v>
       </c>
-      <c r="D74">
+      <c r="D85">
         <v>37</v>
       </c>
-      <c r="E74">
+      <c r="E85">
         <v>137</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F85" s="7">
         <v>0</v>
       </c>
-      <c r="G74">
+      <c r="G85">
         <v>98</v>
       </c>
-      <c r="H74">
+      <c r="H85">
         <v>82</v>
       </c>
-      <c r="J74">
+      <c r="J85">
         <v>91</v>
       </c>
-      <c r="N74"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C75" t="str">
+      <c r="N85" t="str">
+        <v>Region 2Product B</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C86" t="str">
         <v>Region 3</v>
       </c>
-      <c r="D75">
+      <c r="D86">
         <v>180</v>
       </c>
-      <c r="E75">
+      <c r="E86">
         <v>61</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F86" s="7">
         <v>69</v>
       </c>
-      <c r="G75">
+      <c r="G86">
         <v>114</v>
       </c>
-      <c r="H75">
+      <c r="H86">
         <v>197</v>
       </c>
-      <c r="J75">
+      <c r="J86">
         <v>37</v>
       </c>
-      <c r="N75"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C76" t="str">
+      <c r="N86" t="str">
+        <v>Region 2Product E</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C87" t="str">
         <v>Region 4</v>
       </c>
-      <c r="D76">
+      <c r="D87">
         <v>51</v>
       </c>
-      <c r="E76">
+      <c r="E87">
         <v>57</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F87" s="7">
         <v>80</v>
       </c>
-      <c r="G76">
+      <c r="G87">
         <v>73</v>
       </c>
-      <c r="H76">
+      <c r="H87">
         <v>46</v>
       </c>
-      <c r="J76">
+      <c r="J87">
         <v>71</v>
       </c>
-      <c r="N76"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J77">
+      <c r="N87" t="str">
+        <v>Region 3Product A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J88">
         <v>23</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N88" s="7" t="str">
+        <v>Region 3Product B</v>
+      </c>
+      <c r="S88" t="s">
         <v>20</v>
       </c>
-      <c r="N77"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J78">
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J89">
         <v>92</v>
       </c>
-      <c r="N78"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J79">
+      <c r="N89" s="7" t="str">
+        <v>Region 3Product E</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J90">
         <v>39</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N90" s="7" t="str">
+        <v>Region 3Product D</v>
+      </c>
+      <c r="S90" t="s">
         <v>21</v>
       </c>
-      <c r="N79" t="s">
+      <c r="T90" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J80">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J91">
         <v>90</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N91" s="7" t="str">
+        <v>Region 3Product B</v>
+      </c>
+      <c r="S91" t="s">
         <v>23</v>
       </c>
-      <c r="N80" t="s">
+      <c r="T91" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="13:14" x14ac:dyDescent="0.3">
-      <c r="M81" t="s">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N92" s="7" t="str">
+        <v>Region 3Product E</v>
+      </c>
+      <c r="S92" t="s">
         <v>25</v>
       </c>
-      <c r="N81" t="s">
+      <c r="T92" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N93" s="7" t="str">
+        <v>Region 2Product D</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N94" s="7" t="str">
+        <v>Region 2Product B</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N95" s="7" t="str">
+        <v>Region 2Product E</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="N96" s="7" t="str">
+        <v>Region 4Product D</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N97" s="7" t="str">
+        <v>Region 4Product B</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C98" t="str" cm="1">
+        <f t="array" ref="C98:C100">_xlfn.LET(_xlpm.A,C15:F18,
+     _xlpm.F, _xlfn.LAMBDA(_xlpm.x,_xlpm.y,_xlpm.z, _xlfn.DROP(_xlfn.UNIQUE(_xlfn.TAKE(_xlpm.x, _xlpm.y, _xlpm.z), _xlpm.y), _xlpm.z, _xlpm.y)),
+     _xlpm.F(_xlpm.A,,1))</f>
+        <v>Region 3</v>
+      </c>
+      <c r="N98" s="7" t="str">
+        <v>Region 4Product E</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C99" t="str">
+        <v>Region 2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C100" t="str">
+        <v>Region 4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>31</v>
+      </c>
+      <c r="G100" t="s">
+        <v>32</v>
+      </c>
+      <c r="H100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
